--- a/develop/Sparse/circ_buffer.xlsx
+++ b/develop/Sparse/circ_buffer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmvd\Documents\GitHub\discrete-integral-transform\develop\Sparse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB062B2-F7BB-4499-B43E-A7BA01A41ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C40FE-281B-4F0E-A72A-EEAFC38949FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA73F5F6-028A-43C7-B63E-7411CFA4F10E}"/>
   </bookViews>
@@ -517,12 +517,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E31324F-6873-4785-8869-565EAC15BB0E}">
   <dimension ref="L2:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="M59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
-      <selection pane="bottomRight" activeCell="AS5" sqref="AS5"/>
+      <selection pane="bottomRight" activeCell="DG20" sqref="DG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
